--- a/public/SampleBulkTemplate.xlsx
+++ b/public/SampleBulkTemplate.xlsx
@@ -49,13 +49,13 @@
     <t>Mediator Comission</t>
   </si>
   <si>
-    <t>Comission</t>
-  </si>
-  <si>
     <t>Refund Days</t>
   </si>
   <si>
     <t>Terms &amp; Condition</t>
+  </si>
+  <si>
+    <t>Buyer Comission</t>
   </si>
 </sst>
 </file>
@@ -368,8 +368,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -425,13 +425,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
